--- a/task/Book1.xlsx
+++ b/task/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deekshitha R\Documents\share_food\task\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB0DE3B6-6A0A-43D1-AA36-00E6A14F7214}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0AF5CDE3-77A5-47C8-BA5E-AC6CEE667D25}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{D034E9D0-BF23-4A21-866C-3A1170B06DCE}"/>
   </bookViews>
@@ -24,15 +24,74 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+  <si>
+    <t>SHARE FOOD</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>WORK ALLOTED</t>
+  </si>
+  <si>
+    <t>Vinay</t>
+  </si>
+  <si>
+    <t>Nikhila</t>
+  </si>
+  <si>
+    <t>Deekshitha</t>
+  </si>
+  <si>
+    <t>Shodhan</t>
+  </si>
+  <si>
+    <t>Mayur</t>
+  </si>
+  <si>
+    <t>Supritha</t>
+  </si>
+  <si>
+    <t>Organisation and Designing</t>
+  </si>
+  <si>
+    <t>Communication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Database using SQLi3 </t>
+  </si>
+  <si>
+    <t>Designing and framing using HTML and CSS</t>
+  </si>
+  <si>
+    <t>Coding using Python and Flask</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="Bauhaus 93"/>
+      <family val="5"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Bookman Old Style"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -43,7 +102,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -51,12 +110,134 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -371,12 +552,122 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BF69317-303C-41CE-83DF-23353DF12D8F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:D7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="31.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="12"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>